--- a/munkafolyamat/munkafolyamat_ZsHk.xlsx
+++ b/munkafolyamat/munkafolyamat_ZsHk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t xml:space="preserve">V-Tech projektmunka </t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Szöveg hozzáírása</t>
+  </si>
+  <si>
+    <t>3 kép betétele</t>
+  </si>
+  <si>
+    <t>Szentpáli Richárd</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
   <dimension ref="D1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,12 +679,24 @@
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7">
+        <v>44956</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -683,12 +704,24 @@
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7">
+        <v>44956</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
